--- a/docentes/Molina Quezada Raúl - Estadisticos 20211.xlsx
+++ b/docentes/Molina Quezada Raúl - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
   <si>
     <t>Mat</t>
   </si>
@@ -82,136 +82,94 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>MARCIAL</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>ANASTACIO</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
     <t>ALTAMIRANO</t>
   </si>
   <si>
     <t>CARAZA</t>
   </si>
   <si>
+    <t>XOCUA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>GALICIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>DE LUNA</t>
-  </si>
-  <si>
-    <t>NAVARRO</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>XOCUA</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>CANSINO</t>
-  </si>
-  <si>
-    <t>GAMBOA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>MONTERROSAS</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>ROBRES</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>ZEPEDA</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>CARRASCO</t>
-  </si>
-  <si>
-    <t>ARENZANO</t>
-  </si>
-  <si>
     <t>CAMPOS</t>
   </si>
   <si>
+    <t>IVAN DE JESUS</t>
+  </si>
+  <si>
+    <t>CONSTANZA XIMENA</t>
+  </si>
+  <si>
+    <t>HIRAM FABIAN</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>EMELIN JIROMI</t>
+  </si>
+  <si>
+    <t>YAZMIN</t>
+  </si>
+  <si>
+    <t>KIMBERLY</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
     <t>KAREN ESTEPHANY</t>
   </si>
   <si>
     <t>JARED URIEL</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>VALERIA ANGELY</t>
-  </si>
-  <si>
-    <t>STEPHANIE</t>
-  </si>
-  <si>
-    <t>SIARI DANAHY</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>MARIA MAGDALENA</t>
-  </si>
-  <si>
-    <t>IKER</t>
-  </si>
-  <si>
-    <t>RITA ALEJANDRA</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
-  </si>
-  <si>
-    <t>SAMANTHA</t>
-  </si>
-  <si>
-    <t>MARIA XIMENA</t>
-  </si>
-  <si>
-    <t>ZULEICA RENATA</t>
-  </si>
-  <si>
-    <t>ANEL</t>
   </si>
   <si>
     <t>LAURA IVETTE</t>
@@ -618,16 +576,19 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>62.5</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -641,16 +602,19 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>79.41</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -664,16 +628,19 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>71.43000000000001</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -687,16 +654,19 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>82.86</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +725,7 @@
         <v>32</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -778,7 +748,7 @@
         <v>34</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -801,7 +771,7 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -824,7 +794,7 @@
         <v>35</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -886,16 +856,19 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>62.5</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -909,16 +882,19 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>79.41</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -932,16 +908,19 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>71.43000000000001</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -955,16 +934,19 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>82.86</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +956,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1009,22 +991,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920283</v>
+        <v>20330051920136</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -1032,22 +1014,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920390</v>
+        <v>20330051920151</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1055,22 +1037,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920290</v>
+        <v>20330051920042</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1078,22 +1060,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920292</v>
+        <v>19330051920162</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1101,22 +1083,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920293</v>
+        <v>20330051920123</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1124,22 +1106,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920294</v>
+        <v>20330051920129</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1147,22 +1129,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920394</v>
+        <v>20330051920153</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1170,22 +1149,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920299</v>
+        <v>20330051920113</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1193,16 +1172,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920300</v>
+        <v>20330051920283</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1216,16 +1195,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920304</v>
+        <v>20330051920390</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1239,16 +1218,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920308</v>
+        <v>20330051920316</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1257,121 +1236,6 @@
         <v>12</v>
       </c>
       <c r="G12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920309</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920216</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920379</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920314</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920316</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Molina Quezada Raúl - Estadisticos 20211.xlsx
+++ b/docentes/Molina Quezada Raúl - Estadisticos 20211.xlsx
@@ -91,30 +91,30 @@
     <t>ANASTACIO</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>CARAZA</t>
+  </si>
+  <si>
+    <t>XOCUA</t>
+  </si>
+  <si>
     <t>HUERTA</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>ALTAMIRANO</t>
-  </si>
-  <si>
-    <t>CARAZA</t>
-  </si>
-  <si>
-    <t>XOCUA</t>
-  </si>
-  <si>
     <t>MORALES</t>
   </si>
   <si>
@@ -124,24 +124,24 @@
     <t>ROMERO</t>
   </si>
   <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+  </si>
+  <si>
     <t>OFICIAL</t>
   </si>
   <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>APARICIO</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>CAMPOS</t>
-  </si>
-  <si>
     <t>IVAN DE JESUS</t>
   </si>
   <si>
@@ -151,28 +151,28 @@
     <t>HIRAM FABIAN</t>
   </si>
   <si>
+    <t>EMELIN JIROMI</t>
+  </si>
+  <si>
+    <t>YAZMIN</t>
+  </si>
+  <si>
+    <t>KIMBERLY</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>KAREN ESTEPHANY</t>
+  </si>
+  <si>
+    <t>JARED URIEL</t>
+  </si>
+  <si>
+    <t>LAURA IVETTE</t>
+  </si>
+  <si>
     <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>EMELIN JIROMI</t>
-  </si>
-  <si>
-    <t>YAZMIN</t>
-  </si>
-  <si>
-    <t>KIMBERLY</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>KAREN ESTEPHANY</t>
-  </si>
-  <si>
-    <t>JARED URIEL</t>
-  </si>
-  <si>
-    <t>LAURA IVETTE</t>
   </si>
 </sst>
 </file>
@@ -599,10 +599,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,7 +611,7 @@
         <v>27</v>
       </c>
       <c r="G3">
-        <v>79.41</v>
+        <v>77.14</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -742,10 +742,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>27</v>
@@ -879,10 +879,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>27</v>
       </c>
       <c r="G3">
-        <v>79.41</v>
+        <v>77.14</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920162</v>
+        <v>20330051920123</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -1072,10 +1072,10 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920123</v>
+        <v>20330051920129</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1106,14 +1106,11 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920129</v>
+        <v>20330051920153</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
       <c r="D7" t="s">
         <v>46</v>
       </c>
@@ -1129,19 +1126,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920153</v>
+        <v>20330051920113</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
       <c r="D8" t="s">
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920113</v>
+        <v>20330051920283</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
@@ -1164,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1172,13 +1172,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920283</v>
+        <v>20330051920390</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920390</v>
+        <v>20330051920316</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920316</v>
+        <v>19330051920162</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -1230,10 +1230,10 @@
         <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>6</v>

--- a/docentes/Molina Quezada Raúl - Estadisticos 20211.xlsx
+++ b/docentes/Molina Quezada Raúl - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
   <si>
     <t>Mat</t>
   </si>
@@ -91,6 +91,9 @@
     <t>ANASTACIO</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
     <t>GARCIA</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>ROMERO</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>JUAREZ</t>
   </si>
   <si>
@@ -149,6 +155,9 @@
   </si>
   <si>
     <t>HIRAM FABIAN</t>
+  </si>
+  <si>
+    <t>CINTHIA</t>
   </si>
   <si>
     <t>EMELIN JIROMI</t>
@@ -956,7 +965,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -997,10 +1006,10 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1020,10 +1029,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1043,10 +1052,10 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1060,22 +1069,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920123</v>
+        <v>19330051920163</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1083,16 +1092,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920129</v>
+        <v>20330051920123</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -1106,13 +1115,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920153</v>
+        <v>20330051920129</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1126,22 +1138,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920113</v>
+        <v>20330051920153</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1149,22 +1158,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920283</v>
+        <v>20330051920113</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1172,16 +1181,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920390</v>
+        <v>20330051920283</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1195,16 +1204,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920316</v>
+        <v>20330051920390</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1218,24 +1227,47 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920162</v>
+        <v>20330051920316</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920162</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>6</v>
       </c>
     </row>
